--- a/Clases/3.- Formateo/3.- Formateo.xlsx
+++ b/Clases/3.- Formateo/3.- Formateo.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProyectosInvestigacion\CursoExcel\Clases\3.- Formateo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7008"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7008" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;A&quot;0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -97,10 +100,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -110,6 +116,45 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;A&quot;0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="double">
+          <color rgb="FFFF8001"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="double">
+          <color rgb="FFFF8001"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -118,44 +163,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="double">
-          <color rgb="FFFF8001"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="double">
-          <color rgb="FFFF8001"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -171,16 +178,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G13" totalsRowShown="0" dataDxfId="1" headerRowBorderDxfId="9" tableBorderDxfId="10" headerRowCellStyle="Celda vinculada" dataCellStyle="Celda vinculada">
-  <autoFilter ref="A1:G13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:G13" totalsRowShown="0" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" headerRowCellStyle="Celda vinculada" dataCellStyle="Celda vinculada">
+  <autoFilter ref="A1:G13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Columna1" dataDxfId="8" dataCellStyle="Celda vinculada"/>
-    <tableColumn id="2" name="Columna2" dataDxfId="7" dataCellStyle="Celda vinculada"/>
-    <tableColumn id="3" name="Columna3" dataDxfId="6" dataCellStyle="Celda vinculada"/>
-    <tableColumn id="4" name="Columna4" dataDxfId="5" dataCellStyle="Celda vinculada"/>
-    <tableColumn id="5" name="Columna5" dataDxfId="4" dataCellStyle="Celda vinculada"/>
-    <tableColumn id="6" name="Columna6" dataDxfId="3" dataCellStyle="Celda vinculada"/>
-    <tableColumn id="7" name="Columna7" dataDxfId="2" dataCellStyle="Celda vinculada"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Columna1" dataDxfId="0" dataCellStyle="Celda vinculada"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Columna2" dataDxfId="6" dataCellStyle="Celda vinculada"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Columna3" dataDxfId="5" dataCellStyle="Celda vinculada"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Columna4" dataDxfId="4" dataCellStyle="Celda vinculada"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Columna5" dataDxfId="3" dataCellStyle="Celda vinculada"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Columna6" dataDxfId="2" dataCellStyle="Celda vinculada"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Columna7" dataDxfId="1" dataCellStyle="Celda vinculada"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -482,11 +489,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,8 +522,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>12</v>
+      <c r="A2" s="3">
+        <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>13</v>
@@ -538,8 +545,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>13</v>
+      <c r="A3" s="3">
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>14</v>
@@ -561,8 +568,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>14</v>
+      <c r="A4" s="3">
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>15</v>
@@ -584,8 +591,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>15</v>
+      <c r="A5" s="3">
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>16</v>
@@ -607,8 +614,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>16</v>
+      <c r="A6" s="3">
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>17</v>
@@ -630,8 +637,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>17</v>
+      <c r="A7" s="3">
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>18</v>
@@ -653,8 +660,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>18</v>
+      <c r="A8" s="3">
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>19</v>
@@ -676,8 +683,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>19</v>
+      <c r="A9" s="3">
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>20</v>
@@ -699,8 +706,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>20</v>
+      <c r="A10" s="3">
+        <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>21</v>
@@ -722,8 +729,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>21</v>
+      <c r="A11" s="3">
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>22</v>
@@ -745,8 +752,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>22</v>
+      <c r="A12" s="3">
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>23</v>
@@ -768,8 +775,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>23</v>
+      <c r="A13" s="3">
+        <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>24</v>
@@ -807,13 +814,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:G13">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
